--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H2">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I2">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J2">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.204954844114109</v>
+        <v>0.2064483333333333</v>
       </c>
       <c r="N2">
-        <v>0.204954844114109</v>
+        <v>0.619345</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3625320258231888</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3625320258231888</v>
       </c>
       <c r="Q2">
-        <v>14.67994242905015</v>
+        <v>17.85457923258</v>
       </c>
       <c r="R2">
-        <v>14.67994242905015</v>
+        <v>160.69121309322</v>
       </c>
       <c r="S2">
-        <v>0.1058613987222859</v>
+        <v>0.04110540641318133</v>
       </c>
       <c r="T2">
-        <v>0.1058613987222859</v>
+        <v>0.04110540641318134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,57 +599,57 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>156.343810879635</v>
+        <v>86.484492</v>
       </c>
       <c r="H3">
-        <v>156.343810879635</v>
+        <v>259.453476</v>
       </c>
       <c r="I3">
-        <v>0.2310745715982548</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J3">
-        <v>0.2310745715982548</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.204954844114109</v>
+        <v>0.363014</v>
       </c>
       <c r="N3">
-        <v>0.204954844114109</v>
+        <v>1.089042</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6374679741768112</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6374679741768112</v>
       </c>
       <c r="Q3">
-        <v>32.04342138704133</v>
+        <v>31.395081378888</v>
       </c>
       <c r="R3">
-        <v>32.04342138704133</v>
+        <v>282.5557324099921</v>
       </c>
       <c r="S3">
-        <v>0.2310745715982548</v>
+        <v>0.07227880100916907</v>
       </c>
       <c r="T3">
-        <v>0.2310745715982548</v>
+        <v>0.0722788010091691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>105.826997092114</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H4">
-        <v>105.826997092114</v>
+        <v>473.562271</v>
       </c>
       <c r="I4">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J4">
-        <v>0.1564112316247455</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.204954844114109</v>
+        <v>0.2064483333333333</v>
       </c>
       <c r="N4">
-        <v>0.204954844114109</v>
+        <v>0.619345</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3625320258231888</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.3625320258231888</v>
       </c>
       <c r="Q4">
-        <v>21.68975569207849</v>
+        <v>32.58871385916611</v>
       </c>
       <c r="R4">
-        <v>21.68975569207849</v>
+        <v>293.2984247324951</v>
       </c>
       <c r="S4">
-        <v>0.1564112316247455</v>
+        <v>0.07502682142290558</v>
       </c>
       <c r="T4">
-        <v>0.1564112316247455</v>
+        <v>0.07502682142290558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.868583664288</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H5">
-        <v>103.868583664288</v>
+        <v>473.562271</v>
       </c>
       <c r="I5">
-        <v>0.1535167163810589</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J5">
-        <v>0.1535167163810589</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.204954844114109</v>
+        <v>0.363014</v>
       </c>
       <c r="N5">
-        <v>0.204954844114109</v>
+        <v>1.089042</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.6374679741768112</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.6374679741768112</v>
       </c>
       <c r="Q5">
-        <v>21.28836937326744</v>
+        <v>57.30324474826467</v>
       </c>
       <c r="R5">
-        <v>21.28836937326744</v>
+        <v>515.7292027343821</v>
       </c>
       <c r="S5">
-        <v>0.1535167163810589</v>
+        <v>0.1319254368018535</v>
       </c>
       <c r="T5">
-        <v>0.1535167163810589</v>
+        <v>0.1319254368018535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.2138542608639</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H6">
-        <v>36.2138542608639</v>
+        <v>321.360122</v>
       </c>
       <c r="I6">
-        <v>0.05352371041852844</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J6">
-        <v>0.05352371041852844</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.204954844114109</v>
+        <v>0.2064483333333333</v>
       </c>
       <c r="N6">
-        <v>0.204954844114109</v>
+        <v>0.619345</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.3625320258231888</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.3625320258231888</v>
       </c>
       <c r="Q6">
-        <v>7.422204854806422</v>
+        <v>22.11475386223222</v>
       </c>
       <c r="R6">
-        <v>7.422204854806422</v>
+        <v>199.03278476009</v>
       </c>
       <c r="S6">
-        <v>0.05352371041852844</v>
+        <v>0.05091332220116233</v>
       </c>
       <c r="T6">
-        <v>0.05352371041852844</v>
+        <v>0.05091332220116233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,424 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>202.716117073023</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H7">
-        <v>202.716117073023</v>
+        <v>321.360122</v>
       </c>
       <c r="I7">
-        <v>0.2996123712551263</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J7">
-        <v>0.2996123712551263</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.204954844114109</v>
+        <v>0.363014</v>
       </c>
       <c r="N7">
-        <v>0.204954844114109</v>
+        <v>1.089042</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.6374679741768112</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.6374679741768112</v>
       </c>
       <c r="Q7">
-        <v>41.5476501741189</v>
+        <v>38.88607444256933</v>
       </c>
       <c r="R7">
-        <v>41.5476501741189</v>
+        <v>349.974669983124</v>
       </c>
       <c r="S7">
-        <v>0.2996123712551263</v>
+        <v>0.08952481450015454</v>
       </c>
       <c r="T7">
-        <v>0.2996123712551263</v>
+        <v>0.08952481450015455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>104.2030356666667</v>
+      </c>
+      <c r="H8">
+        <v>312.609107</v>
+      </c>
+      <c r="I8">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="J8">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.2064483333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.619345</v>
+      </c>
+      <c r="O8">
+        <v>0.3625320258231888</v>
+      </c>
+      <c r="P8">
+        <v>0.3625320258231888</v>
+      </c>
+      <c r="Q8">
+        <v>21.51254304165722</v>
+      </c>
+      <c r="R8">
+        <v>193.612887374915</v>
+      </c>
+      <c r="S8">
+        <v>0.04952689241171196</v>
+      </c>
+      <c r="T8">
+        <v>0.04952689241171196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>104.2030356666667</v>
+      </c>
+      <c r="H9">
+        <v>312.609107</v>
+      </c>
+      <c r="I9">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="J9">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.363014</v>
+      </c>
+      <c r="N9">
+        <v>1.089042</v>
+      </c>
+      <c r="O9">
+        <v>0.6374679741768112</v>
+      </c>
+      <c r="P9">
+        <v>0.6374679741768112</v>
+      </c>
+      <c r="Q9">
+        <v>37.82716078949933</v>
+      </c>
+      <c r="R9">
+        <v>340.444447105494</v>
+      </c>
+      <c r="S9">
+        <v>0.0870869482531313</v>
+      </c>
+      <c r="T9">
+        <v>0.08708694825313132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H10">
+        <v>109.785373</v>
+      </c>
+      <c r="I10">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J10">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.2064483333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.619345</v>
+      </c>
+      <c r="O10">
+        <v>0.3625320258231888</v>
+      </c>
+      <c r="P10">
+        <v>0.3625320258231888</v>
+      </c>
+      <c r="Q10">
+        <v>7.555002426742778</v>
+      </c>
+      <c r="R10">
+        <v>67.995021840685</v>
+      </c>
+      <c r="S10">
+        <v>0.01739337797651131</v>
+      </c>
+      <c r="T10">
+        <v>0.01739337797651131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H11">
+        <v>109.785373</v>
+      </c>
+      <c r="I11">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J11">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.363014</v>
+      </c>
+      <c r="N11">
+        <v>1.089042</v>
+      </c>
+      <c r="O11">
+        <v>0.6374679741768112</v>
+      </c>
+      <c r="P11">
+        <v>0.6374679741768112</v>
+      </c>
+      <c r="Q11">
+        <v>13.28454246474067</v>
+      </c>
+      <c r="R11">
+        <v>119.560882182666</v>
+      </c>
+      <c r="S11">
+        <v>0.03058411570012808</v>
+      </c>
+      <c r="T11">
+        <v>0.03058411570012808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>270.499283</v>
+      </c>
+      <c r="H12">
+        <v>811.497849</v>
+      </c>
+      <c r="I12">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J12">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.2064483333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.619345</v>
+      </c>
+      <c r="O12">
+        <v>0.3625320258231888</v>
+      </c>
+      <c r="P12">
+        <v>0.3625320258231888</v>
+      </c>
+      <c r="Q12">
+        <v>55.84412614321167</v>
+      </c>
+      <c r="R12">
+        <v>502.597135288905</v>
+      </c>
+      <c r="S12">
+        <v>0.1285662053977163</v>
+      </c>
+      <c r="T12">
+        <v>0.1285662053977163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>270.499283</v>
+      </c>
+      <c r="H13">
+        <v>811.497849</v>
+      </c>
+      <c r="I13">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J13">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.363014</v>
+      </c>
+      <c r="N13">
+        <v>1.089042</v>
+      </c>
+      <c r="O13">
+        <v>0.6374679741768112</v>
+      </c>
+      <c r="P13">
+        <v>0.6374679741768112</v>
+      </c>
+      <c r="Q13">
+        <v>98.195026718962</v>
+      </c>
+      <c r="R13">
+        <v>883.755240470658</v>
+      </c>
+      <c r="S13">
+        <v>0.2260678579123748</v>
+      </c>
+      <c r="T13">
+        <v>0.2260678579123748</v>
       </c>
     </row>
   </sheetData>
